--- a/pages/registration/assets/documents/MCIExcelTemplate.xlsx
+++ b/pages/registration/assets/documents/MCIExcelTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imohammadsadra/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imohammadsadra/Downloads/Bazidid/pages/registration/assets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AFB8A2-7E68-D349-ACD3-D84D1FD4C747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF2E9C1-BE50-604B-90BC-B8F85EA8D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="اسامی دانش‌آموزان و مربیان" sheetId="1" r:id="rId1"/>
@@ -334,10 +334,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,29 +358,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <strike val="0"/>
@@ -397,6 +397,7 @@
         <name val="B Nazanin"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -410,6 +411,7 @@
         <name val="B Nazanin"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -423,6 +425,14 @@
         <name val="B Nazanin"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FFC5CAE9"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -454,8 +464,8 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="اسامی دانش‌آموزان و مربیان-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -529,8 +539,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:F22" headerRowCount="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="0"/>
@@ -845,13 +855,13 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="11" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
@@ -860,28 +870,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="9"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="15" t="e">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -889,23 +899,23 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="24"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26"/>
     </row>
@@ -913,221 +923,221 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5">
         <f t="shared" ref="D23:F23" si="0">COUNTIF($C23,D$2)</f>
@@ -1154,7 +1164,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showDropDown="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Attendance key'!#REF!</xm:f>

--- a/pages/registration/assets/documents/MCIExcelTemplate.xlsx
+++ b/pages/registration/assets/documents/MCIExcelTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imohammadsadra/Downloads/Bazidid/pages/registration/assets/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\آکادمی همراه اول\مستندات\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF2E9C1-BE50-604B-90BC-B8F85EA8D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D899DB7B-E5ED-4307-8C44-00EE33EDA5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="اسامی دانش‌آموزان و مربیان" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
-  <si>
-    <t>روز دیجیتال همراه اول</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>کدملی</t>
   </si>
@@ -57,6 +53,18 @@
   <si>
     <t>دانش‌آموز</t>
   </si>
+  <si>
+    <t>نام مدرسه:</t>
+  </si>
+  <si>
+    <t>تاریخ بازدید:</t>
+  </si>
+  <si>
+    <t>مقطع تحصیلی:</t>
+  </si>
+  <si>
+    <t>روز دیجیتال همراه اول  -   MCI DIGITAL DAY</t>
+  </si>
 </sst>
 </file>
 
@@ -93,61 +101,63 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FFFFFFFF"/>
       <name val="B Nazanin"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="B Nazanin"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="B Nazanin"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF6772AD"/>
       <name val="B Nazanin"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="17"/>
-      <color rgb="FF6772AD"/>
-      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="22"/>
+      <sz val="17"/>
+      <color rgb="FF6772AD"/>
+      <name val="B Titr"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF6772AD"/>
+      <name val="B Titr"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color rgb="FFC5CAE9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="B Titr"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,128 +189,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC5CAE9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFE8EAF6"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFE8EAF6"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFC5CAE9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE8EAF6"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC5CAE9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC5CAE9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC5CAE9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC5CAE9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC5CAE9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC5CAE9"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC5CAE9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC5CAE9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC5CAE9"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFC7C7C7"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -308,83 +207,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
     <dxf>
       <font>
         <strike val="0"/>
@@ -392,46 +265,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color auto="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FFC5CAE9"/>
-        </right>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -441,9 +297,218 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
         <name val="B Nazanin"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -464,8 +529,8 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="اسامی دانش‌آموزان و مربیان-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -483,12 +548,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="584200" cy="736600"/>
+    <xdr:ext cx="784860" cy="817880"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="image1.png">
@@ -508,8 +573,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="546100" y="50800"/>
-          <a:ext cx="584200" cy="736600"/>
+          <a:off x="14607059940" y="668020"/>
+          <a:ext cx="784860" cy="817880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,9 +601,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:F22" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:F23" headerRowCount="0" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="2"/>
@@ -849,318 +914,329 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="13" t="e">
+    <row r="1" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5">
-        <f t="shared" ref="D23:F23" si="0">COUNTIF($C23,D$2)</f>
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10">
+        <f t="shared" ref="D24:F24" si="0">COUNTIF($C24,D$3)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.47499999999999998" bottom="0.52500000000000002" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1169,7 +1245,7 @@
           <x14:formula1>
             <xm:f>'Attendance key'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C23</xm:sqref>
+          <xm:sqref>C4:C24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
